--- a/Spring笔记/Spring Bean的实例化过程.xlsx
+++ b/Spring笔记/Spring Bean的实例化过程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26268" windowHeight="13884"/>
+    <workbookView windowWidth="30168" windowHeight="13884"/>
   </bookViews>
   <sheets>
     <sheet name="Spring Bean的实例化过程" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,136 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -50,67 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,67 +180,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,13 +194,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,7 +260,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,25 +350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,91 +362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,25 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +392,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,26 +429,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,6 +451,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -467,24 +485,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -493,145 +493,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -704,13 +704,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -722,7 +722,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1005840" y="1043940"/>
+          <a:off x="8321040" y="1043940"/>
           <a:ext cx="1394460" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -769,13 +769,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -787,7 +787,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819400" y="1043940"/>
+          <a:off x="10134600" y="1043940"/>
           <a:ext cx="1394460" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -933,13 +933,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -954,7 +954,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2400300" y="1299210"/>
+          <a:off x="9715500" y="1299210"/>
           <a:ext cx="419100" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -983,13 +983,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -1001,7 +1001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2827020" y="411480"/>
+          <a:off x="10142220" y="411480"/>
           <a:ext cx="1623060" cy="358140"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1067,13 +1067,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1088,7 +1088,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4213860" y="1299210"/>
+          <a:off x="11529060" y="1299210"/>
           <a:ext cx="434340" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1117,13 +1117,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -1135,7 +1135,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4648200" y="1043940"/>
+          <a:off x="11963400" y="1043940"/>
           <a:ext cx="1394460" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1279,13 +1279,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>380365</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>175895</xdr:rowOff>
@@ -1297,7 +1297,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2118360" y="2484120"/>
+          <a:off x="9433560" y="2484120"/>
           <a:ext cx="2529205" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1467,13 +1467,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -1485,7 +1485,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3025140" y="3710940"/>
+          <a:off x="10340340" y="3710940"/>
           <a:ext cx="1394460" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1631,13 +1631,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -1649,7 +1649,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="510540" y="3718560"/>
+          <a:off x="7825740" y="3718560"/>
           <a:ext cx="1394460" cy="510540"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1795,13 +1795,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -1816,7 +1816,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1905000" y="3966210"/>
+          <a:off x="9220200" y="3966210"/>
           <a:ext cx="1120140" cy="7620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1845,13 +1845,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
@@ -1863,7 +1863,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1950720" y="3390900"/>
+          <a:off x="9265920" y="3390900"/>
           <a:ext cx="1036320" cy="259080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2015,13 +2015,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>64770</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
@@ -2035,7 +2035,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3722370" y="4221480"/>
+          <a:off x="11037570" y="4221480"/>
           <a:ext cx="3810" cy="327660"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2064,13 +2064,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>176530</xdr:rowOff>
@@ -2082,7 +2082,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2491740" y="4549140"/>
+          <a:off x="9806940" y="4549140"/>
           <a:ext cx="2354580" cy="565150"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2143,13 +2143,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -2161,7 +2161,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="129540" y="3017520"/>
+          <a:off x="7444740" y="3017520"/>
           <a:ext cx="7025640" cy="5036820"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2204,13 +2204,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>449580</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -2222,7 +2222,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5326380" y="3307080"/>
+          <a:off x="12641580" y="3307080"/>
           <a:ext cx="1638300" cy="4282440"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2437,13 +2437,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>107315</xdr:rowOff>
@@ -2455,7 +2455,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="3192780"/>
+          <a:off x="7734300" y="3192780"/>
           <a:ext cx="4480560" cy="4595495"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2498,13 +2498,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>507365</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>81915</xdr:rowOff>
@@ -2516,7 +2516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4892040" y="3672840"/>
+          <a:off x="12207240" y="3672840"/>
           <a:ext cx="492125" cy="249555"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2551,13 +2551,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>46990</xdr:rowOff>
@@ -2569,7 +2569,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2727960" y="5699760"/>
+          <a:off x="10043160" y="5699760"/>
           <a:ext cx="1874520" cy="565150"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2713,13 +2713,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>465455</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>74930</xdr:rowOff>
@@ -2731,7 +2731,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="465455" y="4351020"/>
+          <a:off x="7780655" y="4351020"/>
           <a:ext cx="1911985" cy="2673350"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2921,7 +2921,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>方法</a:t>
+            <a:t>方法之前会检查有没有提供</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>BeanFactoryPostProcessor</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -2930,7 +2939,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>之前</a:t>
+            <a:t>类，如果有提供，则会执行该类中的一个方法，这个方法可以得到这个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Map</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -2939,7 +2957,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>会</a:t>
+            <a:t>中的所有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>BeanDefiniton</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -2948,7 +2975,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>检查</a:t>
+            <a:t>，从而对其中的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>BeanDefinition</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -2957,7 +2993,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>有没有</a:t>
+            <a:t>进行更改，使得最终经过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>preInstantiateSingletons</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
@@ -2966,7 +3011,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>提供</a:t>
+            <a:t>方法注入到</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
@@ -2975,7 +3020,16 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>B</a:t>
+            <a:t>Spring</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>容器的是更改后的</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
@@ -2984,538 +3038,7 @@
               </a:solidFill>
               <a:sym typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>eanF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>actoryP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ostProcessor</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>如果</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>提供</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>则</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>会</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>执行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>该</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>可以</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>得到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>这个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>M</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ap</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>所有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>eanD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>efiniton</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>从而</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>对</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>其中</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>eanD</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>efinit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ion</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>进行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>更改</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>使得</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>最终</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>经过</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>preInstantiateSingletons</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>方法</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>注入到</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>S</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>pring</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>容器</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>是</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>更改</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>后</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:sym typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ean</a:t>
+            <a:t>Bean</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
             <a:solidFill>
@@ -3530,13 +3053,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>176530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>11430</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
@@ -3551,7 +3074,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3665220" y="5114290"/>
+          <a:off x="10980420" y="5114290"/>
           <a:ext cx="3810" cy="585470"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3580,13 +3103,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>563880</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
@@ -3598,7 +3121,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2392680" y="5372100"/>
+          <a:off x="9707880" y="5372100"/>
           <a:ext cx="1135380" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3886,19 +3409,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E7:H7"/>
+  <dimension ref="Q7:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
-    <row r="7" spans="5:8">
-      <c r="E7" t="s">
+    <row r="7" spans="17:20">
+      <c r="Q7" t="s">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="T7" t="s">
         <v>1</v>
       </c>
     </row>
